--- a/Research Corpus/Data by Source/Source_6|Blockchain Consensus Mechanisms- A Comprehensive Review and Performance Analysis Framework.xlsx
+++ b/Research Corpus/Data by Source/Source_6|Blockchain Consensus Mechanisms- A Comprehensive Review and Performance Analysis Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yawu/Desktop/Repos/FT324_SLR/Research Corpus/Data by Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD3EC22-57AE-304C-A6BE-FBF269E6095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262E0E0E-A82B-C446-9462-83065051FE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15880" xr2:uid="{754419C1-0F3F-3647-A532-9827BA1C8B7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>Consensus</t>
   </si>
@@ -84,6 +84,42 @@
   </si>
   <si>
     <t>DAGs</t>
+  </si>
+  <si>
+    <t>Centralized Power in the hands of a few nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralized, The generation of time series is dependent on the leader, and high performance requirements </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>low energy consumption, high throughput, and scalability</t>
+  </si>
+  <si>
+    <t>pledge centralisation risk, initial pledge cost, and finality latency</t>
+  </si>
+  <si>
+    <t>significant energy expenditure and a comparatively low transaction throughput</t>
+  </si>
+  <si>
+    <t>extremely high security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generally possess a reduced number of decentralised nodes and are thus subject to fewer security challenges </t>
+  </si>
+  <si>
+    <t>high scalability, low latency, and resource efficiency</t>
+  </si>
+  <si>
+    <t>challenges in terms of complexity and security</t>
+  </si>
+  <si>
+    <t>complexity, security risk, cross-slice communication, load balancing</t>
+  </si>
+  <si>
+    <t>lower transaction fees and resource consumption while also achieving higher transaction throughput, significant advantages in terms of improving scalability and flexibility, high throughput, low latency, low fees through parallel transaction processing and decentralised architecture</t>
   </si>
 </sst>
 </file>
@@ -127,15 +163,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -153,7 +195,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,9 +217,9 @@
     <tableColumn id="2" xr3:uid="{1FC090FA-D53D-9945-9980-31B77B7C1A40}" name="TPS"/>
     <tableColumn id="3" xr3:uid="{0CF134D6-57BB-DE46-84F0-9B00275184E1}" name="Energy Use per Transaction"/>
     <tableColumn id="4" xr3:uid="{C183822B-94EB-194A-80D3-7FD19859150F}" name="Nakamoto Coefficient"/>
-    <tableColumn id="5" xr3:uid="{2B11CD8D-8F08-3C4D-A40A-DE6AAEB5FE56}" name="% of nodes required to take over network" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{2B11CD8D-8F08-3C4D-A40A-DE6AAEB5FE56}" name="% of nodes required to take over network" dataDxfId="1" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{3AE017AC-E138-5C46-9867-98FB57A97641}" name="Strengths"/>
-    <tableColumn id="7" xr3:uid="{0A1B6FA4-07C8-3149-B875-83ABDFEE8046}" name="Weaknesses"/>
+    <tableColumn id="7" xr3:uid="{0A1B6FA4-07C8-3149-B875-83ABDFEE8046}" name="Weaknesses" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,7 +545,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,59 +582,212 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>20000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
